--- a/Ryan/Repository/Summary Statistics.xlsx
+++ b/Ryan/Repository/Summary Statistics.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Table11" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1039,4 +1040,291 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Sample Group</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>% C8</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>% C10:1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>% C10</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>% C12:1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>% C12</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>% C14:1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>% C14</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>% C16:1</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>% C16</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>% C18:1</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>% C18</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Source File</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>BTE</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0.07±0.00686</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.096±0.0132</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.397±0.0456</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4.07±0.592</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>21.6±2.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.65±0.317</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1.07±0.095</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.549±0.0549</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0.966±0.0823</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1.78±0.174</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0.056±0.0154</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>GCData_R227X w Conc Data - July 2021.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>H204A</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.893±0.326</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0±0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.0677±0.0199</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0±0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.515±0.0295</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0485±0.0191</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.991±0.0595</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1.25±0.2</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>11.9±0.338</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>3.28±0.365</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1.03±0.314</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>GCData_R227X w Conc Data - July 2021.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>KCM55</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.442±0.000801</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>nan±nan</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.19±0.00823</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>12.2±0.0742</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>66.1±0.118</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.98±0.0144</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>3.36±0.0216</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1.11±0.0315</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>3.11±0.0148</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>4.22±0.13</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0.243±0.000146</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>GCData-AM_mutantsKCM1 w Conc Data.xlsx</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>